--- a/Document/Historias de usuarios 10-20.xlsx
+++ b/Document/Historias de usuarios 10-20.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\OneDrive\Escritorio\Todo pc\U\U9\Diseño multimedia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\OneDrive\Escritorio\IZZI-PARKING\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4866B7C5-1141-46AF-951F-2D27DB584505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE0CE4C-7401-45BD-A265-92E5386FDCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4CB1E942-1453-4259-B835-5830CD85585F}"/>
   </bookViews>
@@ -185,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,13 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,24 +373,123 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -394,149 +500,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221892F-3E93-4B11-9A40-4D4A86A9598F}">
   <dimension ref="A5:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48:I50"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,19 +932,19 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="16">
+      <c r="C6" s="47">
         <v>1</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>10</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -911,11 +955,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="17"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
@@ -924,11 +968,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="1" t="s">
         <v>29</v>
       </c>
@@ -937,19 +981,19 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="16">
+      <c r="C9" s="47">
         <v>2</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5">
-        <v>4</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -960,11 +1004,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="1" t="s">
         <v>31</v>
       </c>
@@ -973,11 +1017,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="1" t="s">
         <v>32</v>
       </c>
@@ -986,56 +1030,56 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="40" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="5">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="16">
+      <c r="C15" s="47">
         <v>3</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>7</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1046,11 +1090,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="17"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1059,11 +1103,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="18"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1072,22 +1116,22 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="5">
-        <v>4</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="58">
         <v>3</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="58">
         <v>8</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="59" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="1">
@@ -1095,12 +1139,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="6"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="1" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="59" t="s">
         <v>35</v>
       </c>
       <c r="I19" s="1">
@@ -1108,12 +1152,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="7"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="1" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="59" t="s">
         <v>32</v>
       </c>
       <c r="I20" s="1">
@@ -1121,59 +1165,59 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="5">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="6"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>5</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="5">
-        <v>4</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="58">
+        <v>4</v>
+      </c>
+      <c r="G24" s="58">
         <v>7</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="59" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="1">
@@ -1181,12 +1225,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="6"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="1" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="59" t="s">
         <v>36</v>
       </c>
       <c r="I25" s="1">
@@ -1194,12 +1238,12 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="7"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="1" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="59" t="s">
         <v>37</v>
       </c>
       <c r="I26" s="1">
@@ -1207,22 +1251,22 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="16">
+      <c r="C27" s="47">
         <v>6</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="5">
-        <v>4</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="58">
+        <v>4</v>
+      </c>
+      <c r="G27" s="58">
         <v>5</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="59" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="1">
@@ -1230,12 +1274,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="17"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="1" t="s">
+      <c r="C28" s="48"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="59" t="s">
         <v>31</v>
       </c>
       <c r="I28" s="1">
@@ -1243,12 +1287,12 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="18"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="1" t="s">
+      <c r="C29" s="49"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="59" t="s">
         <v>32</v>
       </c>
       <c r="I29" s="1">
@@ -1256,59 +1300,59 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="40" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="5">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="6"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>7</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="58">
         <v>5</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="58">
         <v>6</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="59" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="1">
@@ -1316,12 +1360,12 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="6"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="1" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="59" t="s">
         <v>31</v>
       </c>
       <c r="I34" s="1">
@@ -1329,12 +1373,12 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="1" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="59" t="s">
         <v>32</v>
       </c>
       <c r="I35" s="1">
@@ -1342,19 +1386,19 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>8</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>6</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>6</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -1365,11 +1409,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="6"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1378,11 +1422,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1391,56 +1435,56 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="31" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="5">
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="6"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="7"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>9</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="3">
         <v>7</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="3">
         <v>3</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -1451,11 +1495,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="6"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="1" t="s">
         <v>40</v>
       </c>
@@ -1464,11 +1508,11 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="7"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
       <c r="H44" s="1" t="s">
         <v>32</v>
       </c>
@@ -1477,19 +1521,19 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>10</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="3">
         <v>6</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="3">
         <v>3</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -1500,11 +1544,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="6"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
       <c r="H46" s="1" t="s">
         <v>41</v>
       </c>
@@ -1513,11 +1557,11 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="1" t="s">
         <v>42</v>
       </c>
@@ -1526,50 +1570,50 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="5">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="53"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="6"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="56"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="7"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="5"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="4">
+      <c r="C51" s="54">
         <v>11</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="54">
         <v>6</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="54">
         <v>3</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -1580,11 +1624,11 @@
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="4"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
       <c r="H52" s="1" t="s">
         <v>41</v>
       </c>
@@ -1593,11 +1637,11 @@
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="4"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="1" t="s">
         <v>42</v>
       </c>
@@ -1606,73 +1650,141 @@
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
       <c r="I54" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
     <mergeCell ref="I48:I50"/>
     <mergeCell ref="A39:B41"/>
     <mergeCell ref="A30:B32"/>
@@ -1689,74 +1801,6 @@
     <mergeCell ref="I30:I32"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="G60:G62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Document/Historias de usuarios 10-20.xlsx
+++ b/Document/Historias de usuarios 10-20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\OneDrive\Escritorio\IZZI-PARKING\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRISTIAN\Documents\GitHub\IZZI-PARKING\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE0CE4C-7401-45BD-A265-92E5386FDCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68D2492-B32A-4546-A73A-95ACCE80A325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4CB1E942-1453-4259-B835-5830CD85585F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{4CB1E942-1453-4259-B835-5830CD85585F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Nombre</t>
   </si>
@@ -61,60 +61,18 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Yo como usuario requiero registrarme e ingresar al sistema</t>
-  </si>
-  <si>
     <t>Consultar</t>
   </si>
   <si>
-    <t>Yo como usuario requiero consultar mi informacion personal en el sistema</t>
-  </si>
-  <si>
     <t>Modificar/eliminar</t>
   </si>
   <si>
-    <t>Registrar factura</t>
-  </si>
-  <si>
-    <t>Yo como usuario necesito registrar las facturas de cada cliente</t>
-  </si>
-  <si>
     <t>Consultar/modificar</t>
   </si>
   <si>
-    <t>Yo como usuario necesito consultar la informacion de las facturas y si es necesario modificarla</t>
-  </si>
-  <si>
-    <t>Yo como usuario requiero modificar mi informacion o eliminar mi informacion del sistema</t>
-  </si>
-  <si>
-    <t>Resgitrar informacion</t>
-  </si>
-  <si>
-    <t>Yo como usuario necesito registrar la informacion del establecimiento</t>
-  </si>
-  <si>
-    <t>Yo como usuario necesito consultar la informacion del establecimiento y modificarla</t>
-  </si>
-  <si>
     <t>Registrar reservas</t>
   </si>
   <si>
-    <t>Yo como usuario requiero registrar la informacion de las reservas solicitadas</t>
-  </si>
-  <si>
-    <t>Yo como usuario necesito consultar,modificar y eliminar la informacion de las reservas ingresadas en el sistema</t>
-  </si>
-  <si>
-    <t>Registrar vehiculo</t>
-  </si>
-  <si>
-    <t>Consultar/modificar vehiculo</t>
-  </si>
-  <si>
-    <t>Yo como usuario necesito registrar los vehiculos que ingresen al establecimiento para tener un control sobre ellos</t>
-  </si>
-  <si>
     <t>Yo como usuario necesito modificar o consultar los vehiculos que esten dentro del establecimiento</t>
   </si>
   <si>
@@ -142,9 +100,6 @@
     <t>Implementar el funcionamiento de modificar y eliminar desde el back y front</t>
   </si>
   <si>
-    <t>Implementar el funcionamiento de registors desde el back y front</t>
-  </si>
-  <si>
     <t>Implementar el funcionamiento de la consultas y modificar desde el back y front</t>
   </si>
   <si>
@@ -166,26 +121,65 @@
     <t>hacer testeo del crud y documentacion desde postman</t>
   </si>
   <si>
-    <t>ITERACION 1</t>
-  </si>
-  <si>
-    <t>ITERACION 2</t>
-  </si>
-  <si>
-    <t>ITERACION 3</t>
-  </si>
-  <si>
-    <t>ITERACION 4</t>
-  </si>
-  <si>
-    <t>ITERACION 5</t>
+    <t>Registrar vehiculos</t>
+  </si>
+  <si>
+    <t>Registrar zonas de parqueos</t>
+  </si>
+  <si>
+    <t>Consultar zonas de parqueo</t>
+  </si>
+  <si>
+    <t>Regsitrar puntos de parqueo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo como usuario requiero registrarme e ingresar al sistema para realizar las consultas necesarias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo como usuario necesito consultar mi informacion para validar que mis datos de regsitro esten correctos </t>
+  </si>
+  <si>
+    <t>Yo como usuario requiero modifiicar mi informacion de registro para agregar o eliminar algun dato en especifico</t>
+  </si>
+  <si>
+    <t>Yo como usuario necesito consultar la informacion de la informacion de los registros, para concoer el estado de cada puesto de parqueo</t>
+  </si>
+  <si>
+    <t>Yo como usuario necesito registrar los vehiculos que ingresan al establecimiento para conocer cuando el parqueadero este al limite</t>
+  </si>
+  <si>
+    <t>Yo como usuario necesito consultar y modificar la informacion de los vehiculos que ingresan y que salen del establecmiietno para concoer la disponibilidad del parqueadero</t>
+  </si>
+  <si>
+    <t>Yo como usuario necesito registrar cada zona de parqueo del establecimiento para conocer el limite total de este</t>
+  </si>
+  <si>
+    <t>Yo como usuario necesito consultar la inforacion de la zonas de parqueos, para conocer el limite actual de cada una de ellas</t>
+  </si>
+  <si>
+    <t>Yo como usuario necesito registrar en el sistema los puntos de parqueo para estar en pleno conocimiento del limite max de cada una de ellas</t>
+  </si>
+  <si>
+    <t>Consultar puntos de parqueo</t>
+  </si>
+  <si>
+    <t>Implementar el funcionamiento de registros  desde el back y front</t>
+  </si>
+  <si>
+    <t>Implementar el funcionamiento de los registros desde el back y front</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITERACION </t>
+  </si>
+  <si>
+    <t>Yo como usuario necesito registrar resrvas para conseguir un lugar de parqueo asegurado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +208,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -229,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -369,14 +376,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,8 +411,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,114 +564,82 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221892F-3E93-4B11-9A40-4D4A86A9598F}">
   <dimension ref="A5:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:D44"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,859 +991,824 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="47">
+      <c r="C6" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4</v>
+      <c r="E6" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="48"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="49"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="47">
+      <c r="C9" s="15">
         <v>2</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="D9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4">
         <v>2</v>
       </c>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="82">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="84"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="47">
+      <c r="C15" s="15">
         <v>3</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="41" t="s">
+      <c r="D15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3">
-        <v>7</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I15" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="48"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="49"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="58">
-        <v>3</v>
-      </c>
-      <c r="G18" s="58">
-        <v>8</v>
-      </c>
-      <c r="H18" s="59" t="s">
-        <v>30</v>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="76">
+        <v>4</v>
+      </c>
+      <c r="G18" s="21">
+        <v>4</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>16</v>
       </c>
       <c r="I18" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="4"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="59" t="s">
-        <v>35</v>
+      <c r="C19" s="5"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="75" t="s">
+        <v>42</v>
       </c>
       <c r="I19" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="59" t="s">
-        <v>32</v>
+      <c r="C20" s="6"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="75" t="s">
+        <v>18</v>
       </c>
       <c r="I20" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="3">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="82">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="83"/>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="84"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>5</v>
       </c>
-      <c r="D24" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="58">
-        <v>4</v>
-      </c>
-      <c r="G24" s="58">
+      <c r="D24" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="79">
         <v>7</v>
       </c>
-      <c r="H24" s="59" t="s">
-        <v>30</v>
+      <c r="G24" s="21">
+        <v>4</v>
+      </c>
+      <c r="H24" s="75" t="s">
+        <v>16</v>
       </c>
       <c r="I24" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="4"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="59" t="s">
-        <v>36</v>
+      <c r="C25" s="5"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="75" t="s">
+        <v>21</v>
       </c>
       <c r="I25" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="59" t="s">
-        <v>37</v>
+      <c r="C26" s="6"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="75" t="s">
+        <v>22</v>
       </c>
       <c r="I26" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="47">
+      <c r="B27" s="30"/>
+      <c r="C27" s="15">
         <v>6</v>
       </c>
-      <c r="D27" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="58">
-        <v>4</v>
-      </c>
-      <c r="G27" s="58">
-        <v>5</v>
-      </c>
-      <c r="H27" s="59" t="s">
-        <v>30</v>
+      <c r="D27" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="76">
+        <v>6</v>
+      </c>
+      <c r="G27" s="21">
+        <v>7</v>
+      </c>
+      <c r="H27" s="75" t="s">
+        <v>16</v>
       </c>
       <c r="I27" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="48"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="59" t="s">
-        <v>31</v>
+      <c r="B28" s="30"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="75" t="s">
+        <v>43</v>
       </c>
       <c r="I28" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="49"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="59" t="s">
-        <v>32</v>
+    <row r="29" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="75" t="s">
+        <v>18</v>
       </c>
       <c r="I29" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="82">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="4"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="83"/>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="84"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="3">
+      <c r="B33" s="30"/>
+      <c r="C33" s="15">
         <v>7</v>
       </c>
-      <c r="D33" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="58">
+      <c r="D33" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="76">
         <v>5</v>
       </c>
-      <c r="G33" s="58">
-        <v>6</v>
-      </c>
-      <c r="H33" s="59" t="s">
-        <v>30</v>
+      <c r="G33" s="21">
+        <v>4</v>
+      </c>
+      <c r="H33" s="75" t="s">
+        <v>16</v>
       </c>
       <c r="I33" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="59" t="s">
-        <v>31</v>
+      <c r="B34" s="30"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="75" t="s">
+        <v>17</v>
       </c>
       <c r="I34" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="59" t="s">
-        <v>32</v>
+    <row r="35" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="30"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="75" t="s">
+        <v>18</v>
       </c>
       <c r="I35" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="3">
+      <c r="B36" s="30"/>
+      <c r="C36" s="4">
         <v>8</v>
       </c>
-      <c r="D36" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="3">
-        <v>6</v>
-      </c>
-      <c r="G36" s="3">
-        <v>6</v>
+      <c r="D36" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="4">
+        <v>10</v>
+      </c>
+      <c r="G36" s="4">
+        <v>5</v>
       </c>
       <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="30"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="30"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="83"/>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="84"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="30"/>
+      <c r="C42" s="4">
+        <v>9</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="4"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="5"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="1" t="s">
+      <c r="E42" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="3">
+      <c r="F42" s="4">
         <v>9</v>
       </c>
-      <c r="D42" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="3">
-        <v>7</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3</v>
+      <c r="G42" s="4">
+        <v>5</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I42" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="30"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="30"/>
+      <c r="C45" s="4">
+        <v>10</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I43" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="5"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="3">
-        <v>10</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="3">
-        <v>6</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3</v>
+      <c r="F45" s="4">
+        <v>9</v>
+      </c>
+      <c r="G45" s="4">
+        <v>5</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I45" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="4"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
       <c r="H46" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+    <row r="47" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="30"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
       <c r="H47" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I47" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="3">
+      <c r="C48" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="82">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="3:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="54">
+    <row r="49" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="34"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="83"/>
+    </row>
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="37"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="84"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="30"/>
+      <c r="C51" s="3">
         <v>11</v>
       </c>
-      <c r="D51" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="55" t="s">
+      <c r="D51" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="3">
+        <v>8</v>
+      </c>
+      <c r="G51" s="3">
+        <v>5</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="30"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="54">
-        <v>6</v>
-      </c>
-      <c r="G51" s="54">
-        <v>3</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="54"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I52" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="54"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="30"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
       <c r="H53" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I53" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="I54" s="2">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="73">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+    <row r="55" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+    </row>
+    <row r="56" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
+  <mergeCells count="87">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B51:B53"/>
     <mergeCell ref="I48:I50"/>
     <mergeCell ref="A39:B41"/>
     <mergeCell ref="A30:B32"/>
@@ -1801,6 +1825,70 @@
     <mergeCell ref="I30:I32"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C54:H56"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G60:G62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Document/Historias de usuarios 10-20.xlsx
+++ b/Document/Historias de usuarios 10-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRISTIAN\Documents\GitHub\IZZI-PARKING\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68D2492-B32A-4546-A73A-95ACCE80A325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A6D32-0F1A-49EB-90C9-799C848620E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{4CB1E942-1453-4259-B835-5830CD85585F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4CB1E942-1453-4259-B835-5830CD85585F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Nombre</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t>Yo como usuario necesito registrar resrvas para conseguir un lugar de parqueo asegurado</t>
+  </si>
+  <si>
+    <t>ITERACION 1</t>
+  </si>
+  <si>
+    <t>ITERACION 2</t>
+  </si>
+  <si>
+    <t>ITERACION 3</t>
+  </si>
+  <si>
+    <t>ITERACION 4</t>
+  </si>
+  <si>
+    <t>ITERACION 5</t>
   </si>
 </sst>
 </file>
@@ -396,11 +411,103 @@
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,6 +516,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -420,226 +572,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221892F-3E93-4B11-9A40-4D4A86A9598F}">
   <dimension ref="A5:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,19 +1006,19 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="15">
+      <c r="C6" s="57">
         <v>1</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="36">
         <v>3</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="36">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1014,11 +1029,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1027,11 +1042,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="17"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1040,19 +1055,19 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="15">
+      <c r="C9" s="57">
         <v>2</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="36">
         <v>2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="36">
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1063,11 +1078,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1076,11 +1091,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1089,56 +1104,56 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="82">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="83"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="84"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="15">
+      <c r="C15" s="57">
         <v>3</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="36">
         <v>2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="36">
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1149,11 +1164,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1162,11 +1177,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="17"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1175,22 +1190,22 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="4">
-        <v>4</v>
-      </c>
-      <c r="D18" s="58" t="s">
+      <c r="C18" s="36">
+        <v>4</v>
+      </c>
+      <c r="D18" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="76">
-        <v>4</v>
-      </c>
-      <c r="G18" s="21">
-        <v>4</v>
-      </c>
-      <c r="H18" s="75" t="s">
+      <c r="F18" s="48">
+        <v>4</v>
+      </c>
+      <c r="G18" s="51">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="1">
@@ -1198,12 +1213,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="75" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I19" s="1">
@@ -1211,12 +1226,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="75" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="1">
@@ -1224,59 +1239,59 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="82">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="83"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="84"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="4">
+      <c r="C24" s="36">
         <v>5</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="69">
         <v>7</v>
       </c>
-      <c r="G24" s="21">
-        <v>4</v>
-      </c>
-      <c r="H24" s="75" t="s">
+      <c r="G24" s="51">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I24" s="1">
@@ -1284,12 +1299,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="5"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="75" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="1">
@@ -1297,12 +1312,12 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="6"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="75" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="1">
@@ -1310,23 +1325,23 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="15">
+      <c r="B27" s="5"/>
+      <c r="C27" s="57">
         <v>6</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="76">
+      <c r="F27" s="48">
         <v>6</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="51">
         <v>7</v>
       </c>
-      <c r="H27" s="75" t="s">
+      <c r="H27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1334,13 +1349,13 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="75" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="1">
@@ -1348,13 +1363,13 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="30"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="75" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1362,60 +1377,60 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="82">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="83"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="84"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="30"/>
-      <c r="C33" s="15">
+      <c r="B33" s="5"/>
+      <c r="C33" s="57">
         <v>7</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="48">
         <v>5</v>
       </c>
-      <c r="G33" s="21">
-        <v>4</v>
-      </c>
-      <c r="H33" s="75" t="s">
+      <c r="G33" s="51">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I33" s="1">
@@ -1423,13 +1438,13 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="30"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="75" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="1">
@@ -1437,13 +1452,13 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="30"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="75" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="1">
@@ -1451,20 +1466,20 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
-      <c r="C36" s="4">
+      <c r="B36" s="5"/>
+      <c r="C36" s="36">
         <v>8</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="36">
         <v>10</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="36">
         <v>5</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -1475,12 +1490,12 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
       <c r="H37" s="1" t="s">
         <v>23</v>
       </c>
@@ -1489,12 +1504,12 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="30"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="1" t="s">
         <v>24</v>
       </c>
@@ -1503,57 +1518,57 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="82">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="83"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="84"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
-      <c r="C42" s="4">
+      <c r="B42" s="5"/>
+      <c r="C42" s="36">
         <v>9</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="36">
         <v>9</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="36">
         <v>5</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -1564,12 +1579,12 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="30"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
       <c r="H43" s="1" t="s">
         <v>25</v>
       </c>
@@ -1578,12 +1593,12 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="30"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
       <c r="H44" s="1" t="s">
         <v>18</v>
       </c>
@@ -1592,20 +1607,20 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
-      <c r="C45" s="4">
+      <c r="B45" s="5"/>
+      <c r="C45" s="36">
         <v>10</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="36">
         <v>9</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="36">
         <v>5</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -1616,12 +1631,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="30"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
       <c r="H46" s="1" t="s">
         <v>26</v>
       </c>
@@ -1630,12 +1645,12 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
       <c r="H47" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,51 +1659,51 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="82">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="6">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="83"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="37"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="84"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
-      <c r="C51" s="3">
+      <c r="B51" s="5"/>
+      <c r="C51" s="82">
         <v>11</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="82">
         <v>8</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="82">
         <v>5</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -1699,12 +1714,12 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
       <c r="H52" s="1" t="s">
         <v>26</v>
       </c>
@@ -1713,12 +1728,12 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="30"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="82"/>
       <c r="H53" s="1" t="s">
         <v>27</v>
       </c>
@@ -1727,88 +1742,145 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="73">
+      <c r="B54" s="4"/>
+      <c r="C54" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
     </row>
     <row r="56" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C54:H56"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
     <mergeCell ref="I48:I50"/>
     <mergeCell ref="A39:B41"/>
     <mergeCell ref="A30:B32"/>
@@ -1825,70 +1897,13 @@
     <mergeCell ref="I30:I32"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C54:H56"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B51:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Document/Historias de usuarios 10-20.xlsx
+++ b/Document/Historias de usuarios 10-20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRISTIAN\Documents\GitHub\IZZI-PARKING\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNKNOWN\Documents\GitHub\IZZI-PARKING\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A6D32-0F1A-49EB-90C9-799C848620E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B7B720-C7A7-4998-BBD0-26C7976BA8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4CB1E942-1453-4259-B835-5830CD85585F}"/>
   </bookViews>
@@ -169,32 +169,32 @@
     <t>Implementar el funcionamiento de los registros desde el back y front</t>
   </si>
   <si>
-    <t xml:space="preserve">ITERACION </t>
-  </si>
-  <si>
     <t>Yo como usuario necesito registrar resrvas para conseguir un lugar de parqueo asegurado</t>
   </si>
   <si>
-    <t>ITERACION 1</t>
-  </si>
-  <si>
-    <t>ITERACION 2</t>
-  </si>
-  <si>
-    <t>ITERACION 3</t>
-  </si>
-  <si>
-    <t>ITERACION 4</t>
-  </si>
-  <si>
-    <t>ITERACION 5</t>
+    <t>ITERACIÓN 1</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 2</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 3</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 4</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 5</t>
+  </si>
+  <si>
+    <t>ITERACIÓN 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +204,6 @@
     </font>
     <font>
       <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -251,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -391,68 +384,171 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,152 +605,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,14 +927,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221892F-3E93-4B11-9A40-4D4A86A9598F}">
   <dimension ref="A5:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:H56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="43.28515625" customWidth="1"/>
     <col min="8" max="8" width="74.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1006,318 +962,320 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="57">
+      <c r="C6" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="17"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="18"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="40">
+        <v>4</v>
+      </c>
+      <c r="G9" s="28">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="10"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="52">
+        <f>SUM(I6:I11)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="53"/>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="54"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="16">
+        <v>3</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="40">
+        <v>5</v>
+      </c>
+      <c r="G15" s="28">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="17"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="18"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="9">
+        <v>10</v>
+      </c>
+      <c r="G18" s="9">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="10"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="11"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="52">
+        <f>SUM(I15:I20)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="53"/>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="54"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="9">
+        <v>5</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="25">
         <v>7</v>
       </c>
-      <c r="E6" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="36">
-        <v>3</v>
-      </c>
-      <c r="G6" s="36">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="58"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="59"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="57">
-        <v>2</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="36">
-        <v>2</v>
-      </c>
-      <c r="G9" s="36">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G24" s="28">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="57">
-        <v>3</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="36">
-        <v>2</v>
-      </c>
-      <c r="G15" s="36">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="58"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="59"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="36">
-        <v>4</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="48">
-        <v>4</v>
-      </c>
-      <c r="G18" s="51">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="37"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="38"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="6">
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="10"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="36">
-        <v>5</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="69">
-        <v>7</v>
-      </c>
-      <c r="G24" s="51">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="37"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="I25" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="38"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="3" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="1">
@@ -1325,23 +1283,23 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="57">
+      <c r="B27" s="55"/>
+      <c r="C27" s="16">
         <v>6</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="40">
         <v>6</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="28">
         <v>7</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1349,13 +1307,13 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="3" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="1">
@@ -1363,13 +1321,13 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="3" t="s">
+      <c r="B29" s="55"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1377,60 +1335,61 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="27" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="6">
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="52">
+        <f>SUM(I24:I29)</f>
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="7"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="53"/>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="8"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="54"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="57">
+      <c r="B33" s="55"/>
+      <c r="C33" s="9">
         <v>7</v>
       </c>
-      <c r="D33" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="48">
+      <c r="D33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="9">
+        <v>9</v>
+      </c>
+      <c r="G33" s="9">
         <v>5</v>
       </c>
-      <c r="G33" s="51">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I33" s="1">
@@ -1438,48 +1397,48 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="3" t="s">
-        <v>17</v>
+      <c r="B34" s="55"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I34" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="3" t="s">
+      <c r="B35" s="55"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="36">
+      <c r="B36" s="55"/>
+      <c r="C36" s="9">
         <v>8</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="36">
-        <v>10</v>
-      </c>
-      <c r="G36" s="36">
+      <c r="D36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="9">
+        <v>9</v>
+      </c>
+      <c r="G36" s="9">
         <v>5</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -1490,138 +1449,139 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="55"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="52">
+        <f>SUM(I33:I38)</f>
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="7"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="53"/>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="8"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="54"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="36">
+      <c r="B42" s="55"/>
+      <c r="C42" s="16">
         <v>9</v>
       </c>
-      <c r="D42" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="36">
-        <v>9</v>
-      </c>
-      <c r="G42" s="36">
+      <c r="D42" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="9">
+        <v>3</v>
+      </c>
+      <c r="G42" s="9">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="1">
         <v>5</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I43" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
       <c r="H44" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I44" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="36">
+      <c r="B45" s="55"/>
+      <c r="C45" s="16">
         <v>10</v>
       </c>
-      <c r="D45" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="36">
-        <v>9</v>
-      </c>
-      <c r="G45" s="36">
-        <v>5</v>
+      <c r="D45" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="9">
+        <v>2</v>
+      </c>
+      <c r="G45" s="9">
+        <v>3</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>16</v>
@@ -1631,79 +1591,80 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I46" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="7"/>
+      <c r="C48" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="52">
+        <f>SUM(I42:I47)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="59"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="53"/>
     </row>
     <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="8"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="54"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="82">
+      <c r="B51" s="55"/>
+      <c r="C51" s="4">
         <v>11</v>
       </c>
-      <c r="D51" s="81" t="s">
+      <c r="D51" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="84" t="s">
+      <c r="E51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="82">
+      <c r="F51" s="4">
         <v>8</v>
       </c>
-      <c r="G51" s="82">
+      <c r="G51" s="4">
         <v>5</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -1714,12 +1675,12 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="1" t="s">
         <v>26</v>
       </c>
@@ -1728,12 +1689,12 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="82"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="1" t="s">
         <v>27</v>
       </c>
@@ -1741,146 +1702,93 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="83" t="s">
+    <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="2">
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="75">
+        <f>SUM(I51:I53)</f>
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="75"/>
     </row>
     <row r="56" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="75"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C54:H56"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
+  <mergeCells count="88">
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B51:B53"/>
     <mergeCell ref="I48:I50"/>
     <mergeCell ref="A39:B41"/>
     <mergeCell ref="A30:B32"/>
@@ -1895,15 +1803,72 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="C30:H32"/>
     <mergeCell ref="I30:I32"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
     <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C54:H56"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G60:G62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Document/Historias de usuarios 10-20.xlsx
+++ b/Document/Historias de usuarios 10-20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNKNOWN\Documents\GitHub\IZZI-PARKING\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B7B720-C7A7-4998-BBD0-26C7976BA8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB276B7A-33FE-4552-AD25-A5807B0A30F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4CB1E942-1453-4259-B835-5830CD85585F}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
     <t>Prioridad</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>ITERACIÓN 6</t>
+  </si>
+  <si>
+    <t>Descripción</t>
   </si>
 </sst>
 </file>
@@ -388,15 +388,207 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -410,206 +602,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221892F-3E93-4B11-9A40-4D4A86A9598F}">
   <dimension ref="A5:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,852 +943,897 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="16">
+      <c r="C6" s="48">
         <v>1</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="D6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="27">
         <v>2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="27">
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="17"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="9">
+      <c r="C9" s="27">
         <v>2</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="40">
-        <v>4</v>
-      </c>
-      <c r="G9" s="28">
+      <c r="D9" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="39">
+        <v>4</v>
+      </c>
+      <c r="G9" s="42">
         <v>4</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="10"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="29"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="30"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="52">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="6">
         <f>SUM(I6:I11)</f>
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="53"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="54"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="16">
+      <c r="C15" s="48">
         <v>3</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="40">
+      <c r="D15" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="39">
         <v>5</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="42">
         <v>4</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="49"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="17"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="50"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="18"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="9">
-        <v>4</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="C18" s="27">
+        <v>4</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="27">
         <v>10</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="27">
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="10"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="29"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="11"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="I20" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="52">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="6">
         <f>SUM(I15:I20)</f>
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="53"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="54"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="9">
+      <c r="C24" s="27">
         <v>5</v>
       </c>
-      <c r="D24" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="25">
+      <c r="D24" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="60">
         <v>7</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="42">
         <v>4</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="10"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="29"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="29"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="11"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="I26" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="55"/>
-      <c r="C27" s="16">
+      <c r="B27" s="5"/>
+      <c r="C27" s="48">
         <v>6</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="40">
+      <c r="D27" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="39">
         <v>6</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="42">
         <v>7</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="29"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I28" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="55"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="30"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="52">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="6">
         <f>SUM(I24:I29)</f>
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="53"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="54"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="55"/>
-      <c r="C33" s="9">
+      <c r="B33" s="5"/>
+      <c r="C33" s="27">
         <v>7</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="27">
+        <v>9</v>
+      </c>
+      <c r="G33" s="27">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="27">
+        <v>8</v>
+      </c>
+      <c r="D36" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E36" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F36" s="27">
         <v>9</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G36" s="27">
         <v>5</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="55"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="1" t="s">
+      <c r="H36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="I34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="55"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="55"/>
-      <c r="C36" s="9">
-        <v>8</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="9">
-        <v>9</v>
-      </c>
-      <c r="G36" s="9">
-        <v>5</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="55"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I37" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="55"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
       <c r="H38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="52">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="6">
         <f>SUM(I33:I38)</f>
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="53"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="55"/>
-      <c r="C42" s="16">
+      <c r="B42" s="5"/>
+      <c r="C42" s="48">
         <v>9</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="9">
+      <c r="D42" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="27">
         <v>3</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="27">
         <v>2</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="55"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
       <c r="H43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="I43" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="55"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="I44" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="55"/>
-      <c r="C45" s="16">
+      <c r="B45" s="5"/>
+      <c r="C45" s="48">
         <v>10</v>
       </c>
-      <c r="D45" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="9">
+      <c r="D45" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="27">
         <v>2</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="27">
         <v>3</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="55"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I46" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="55"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I47" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="52">
+      <c r="C48" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="6">
         <f>SUM(I42:I47)</f>
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="59"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="53"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="54"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="55"/>
-      <c r="C51" s="4">
+      <c r="B51" s="5"/>
+      <c r="C51" s="73">
         <v>11</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="D51" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="73">
         <v>8</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="73">
         <v>5</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I51" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="55"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
       <c r="H52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I52" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="55"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I53" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="75">
+      <c r="B54" s="4"/>
+      <c r="C54" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="3">
         <f>SUM(I51:I53)</f>
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="75"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="3"/>
     </row>
     <row r="56" spans="2:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="75"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="3"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="A39:B41"/>
-    <mergeCell ref="A30:B32"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C54:H56"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A21:B23"/>
     <mergeCell ref="A12:B14"/>
     <mergeCell ref="C48:H50"/>
@@ -1808,67 +1850,22 @@
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="A39:B41"/>
+    <mergeCell ref="A30:B32"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="F27:F29"/>
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C54:H56"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="G60:G62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
